--- a/second_excel.xlsx
+++ b/second_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5029869a7d4654a/Desktop/my_leetcode_problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC104881A999753C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51592898-DF11-4AE1-B57B-667A2C0A647B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC104881A999753C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9430913D-F81A-4EC0-8592-57284E3EEBC3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -33,12 +33,6 @@
     <t>sandesh</t>
   </si>
   <si>
-    <t>raj</t>
-  </si>
-  <si>
-    <t>ajay</t>
-  </si>
-  <si>
     <t>aman</t>
   </si>
   <si>
@@ -46,6 +40,9 @@
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>Aditya</t>
   </si>
 </sst>
 </file>
@@ -366,7 +363,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -389,31 +386,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>86</v>
